--- a/server/App/assets/receiptGenerationTherapy.xlsx
+++ b/server/App/assets/receiptGenerationTherapy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajud\Downloads\bhartiya-darohar-main\bhartiya-darohar-main\server\App\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA936DA-2C6C-4D27-9C98-836F9AA6EAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8B6F9-F108-480B-9908-2ECFD39805D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -442,44 +442,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -490,73 +460,83 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1022,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1039,51 +1019,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:18" ht="24.6" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:18" ht="16.8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1097,8 +1077,8 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1109,9 +1089,9 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1126,16 +1106,16 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
@@ -1150,11 +1130,10 @@
       <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="50"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="25"/>
-      <c r="O8" s="39"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="35"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="70"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
@@ -1167,7 +1146,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="37" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="24"/>
@@ -1184,8 +1163,8 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="1"/>
       <c r="D11" s="14"/>
       <c r="E11" s="17"/>
@@ -1194,10 +1173,10 @@
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1205,9 +1184,9 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="14"/>
       <c r="E13" s="17"/>
       <c r="F13" s="14"/>
@@ -1215,10 +1194,10 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1226,9 +1205,9 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="14"/>
       <c r="E15" s="17"/>
       <c r="F15" s="14"/>
@@ -1236,24 +1215,24 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="19.2">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="70" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="48" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="22"/>
@@ -1262,63 +1241,63 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:13" ht="19.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:13" ht="23.4" customHeight="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
       <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:13" ht="16.8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1332,8 +1311,8 @@
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1344,9 +1323,9 @@
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1361,16 +1340,16 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="42"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="31"/>
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="10" t="s">
@@ -1385,7 +1364,7 @@
       <c r="G26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="50"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:13">
@@ -1399,7 +1378,7 @@
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="37" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="24"/>
@@ -1416,8 +1395,8 @@
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="1"/>
       <c r="D29" s="14"/>
       <c r="E29" s="17"/>
@@ -1426,10 +1405,10 @@
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="1" t="s">
         <v>17</v>
@@ -1439,8 +1418,8 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
       <c r="E31" s="17"/>
@@ -1449,10 +1428,10 @@
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="81"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="1" t="s">
         <v>17</v>
@@ -1462,8 +1441,8 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="18"/>
       <c r="D33" s="14"/>
       <c r="E33" s="17"/>
@@ -1472,10 +1451,10 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="38"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="1" t="s">
         <v>17</v>
@@ -1484,57 +1463,52 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
     </row>
     <row r="36" spans="1:21" ht="19.8" thickBot="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="48" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="48" t="s">
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="47"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:21" ht="15">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
+      <c r="B38" s="39"/>
+      <c r="H38" s="29"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -1543,14 +1517,12 @@
       <c r="T38" s="26"/>
     </row>
     <row r="39" spans="1:21" ht="15">
-      <c r="A39" s="73"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="60"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="14"/>
+      <c r="H39" s="42"/>
       <c r="L39" s="2"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
@@ -1562,17 +1534,15 @@
       <c r="T39" s="26"/>
     </row>
     <row r="40" spans="1:21" ht="15">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="55" t="s">
+      <c r="A40" s="63"/>
+      <c r="B40" s="64"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="39"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="43"/>
       <c r="M40" s="2"/>
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
@@ -1584,18 +1554,16 @@
       <c r="U40" s="26"/>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="60"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="14"/>
+      <c r="H41" s="42"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="4"/>
@@ -1603,67 +1571,65 @@
       <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="55" t="s">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="63"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="43"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="77"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="60"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="14"/>
+      <c r="H43" s="42"/>
       <c r="I43" s="1"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="67" t="s">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
       <c r="I44" s="1"/>
       <c r="L44" s="2"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="23"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
     </row>
     <row r="45" spans="1:21" ht="19.2">
       <c r="A45" s="1"/>
@@ -1672,9 +1638,9 @@
       <c r="D45" s="21"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -1698,11 +1664,16 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A19:I20"/>
     <mergeCell ref="E37:F37"/>
@@ -1714,32 +1685,27 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="P44:T44"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="M41:O41"/>
     <mergeCell ref="M42:T42"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="P43:Q43"/>
     <mergeCell ref="S43:T43"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/server/App/assets/receiptGenerationTherapy.xlsx
+++ b/server/App/assets/receiptGenerationTherapy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajud\Downloads\bhartiya-darohar-main\bhartiya-darohar-main\server\App\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8B6F9-F108-480B-9908-2ECFD39805D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25312C4B-58A8-418C-8BCD-A2631B97EC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,19 +1002,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="0.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/server/App/assets/receiptGenerationTherapy.xlsx
+++ b/server/App/assets/receiptGenerationTherapy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajud\Downloads\bhartiya-darohar-main\bhartiya-darohar-main\server\App\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25312C4B-58A8-418C-8BCD-A2631B97EC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505A1DE-5A87-4BA4-AA7A-08D797618389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,14 +1002,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="0.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>

--- a/server/App/assets/receiptGenerationTherapy.xlsx
+++ b/server/App/assets/receiptGenerationTherapy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajud\Downloads\bhartiya-darohar-main\bhartiya-darohar-main\server\App\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505A1DE-5A87-4BA4-AA7A-08D797618389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418618AD-B6B4-4CF4-B8F2-D16DB705CA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -360,6 +360,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -368,7 +394,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -431,7 +457,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -448,7 +473,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -459,7 +483,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -467,15 +490,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,24 +545,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,23 +557,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1000,16 +1039,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="0.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
@@ -1020,51 +1059,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:18" ht="24.6" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:18" ht="16.8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1078,21 +1117,21 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="26"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1107,16 +1146,16 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
@@ -1131,12 +1170,12 @@
       <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="25"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="70"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="H8" s="11"/>
+      <c r="I8" s="24"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1147,13 +1186,13 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="H9" s="66"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1161,79 +1200,82 @@
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:18" ht="15" thickBot="1">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14"/>
-      <c r="H13" s="17"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
+    <row r="14" spans="1:18" ht="15" thickBot="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
+    <row r="15" spans="1:18" ht="15" thickBot="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14"/>
-      <c r="H15" s="17"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+    <row r="16" spans="1:18" ht="15" thickBot="1">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="19.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="43" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="22"/>
@@ -1242,63 +1284,63 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:13" ht="19.2">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:13" ht="23.4" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
       <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="16.8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1312,21 +1354,21 @@
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="26"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="66"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1341,16 +1383,16 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="31"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="10" t="s">
@@ -1365,10 +1407,10 @@
       <c r="G26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="H26" s="11"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1379,13 +1421,13 @@
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="H27" s="66"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1393,24 +1435,25 @@
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="14"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1418,22 +1461,23 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+    <row r="31" spans="1:13" ht="15" thickBot="1">
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="14"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="1" t="s">
         <v>17</v>
       </c>
@@ -1441,243 +1485,243 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
+    <row r="33" spans="1:21" ht="15" thickBot="1">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="14"/>
-      <c r="H33" s="17"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="70"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
+    <row r="34" spans="1:21" ht="15" thickBot="1">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="60" t="s">
+    <row r="35" spans="1:21" ht="15" thickBot="1">
+      <c r="A35" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-    </row>
-    <row r="36" spans="1:21" ht="19.8" thickBot="1">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="32" t="s">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="36" t="s">
+      <c r="B36" s="73"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="36" t="s">
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="35"/>
-    </row>
-    <row r="38" spans="1:21" ht="15">
-      <c r="A38" s="41" t="s">
+      <c r="H36" s="33"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.6" thickBot="1">
+      <c r="A37" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="H38" s="29"/>
+      <c r="B37" s="36"/>
+      <c r="H37" s="28"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="25"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.6" thickBot="1">
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="4"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="26"/>
-    </row>
-    <row r="39" spans="1:21" ht="15">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="14"/>
-      <c r="H39" s="42"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="7"/>
+      <c r="T38" s="25"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.6" thickBot="1">
+      <c r="A39" s="64"/>
+      <c r="B39" s="65"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="39"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="26"/>
-    </row>
-    <row r="40" spans="1:21" ht="15">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="1" t="s">
+      <c r="R39" s="7"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="25"/>
+    </row>
+    <row r="40" spans="1:21" ht="15" thickBot="1">
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="70"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+    </row>
+    <row r="41" spans="1:21" ht="15" thickBot="1">
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="43"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="26"/>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="14"/>
-      <c r="H41" s="42"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="39"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="1" t="s">
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+    </row>
+    <row r="42" spans="1:21" ht="15" thickBot="1">
+      <c r="A42" s="58"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="1"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+    </row>
+    <row r="43" spans="1:21" ht="15" thickBot="1">
+      <c r="A43" s="60"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="43"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="14"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="42"/>
       <c r="I43" s="1"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-    </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="46"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="1"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-    </row>
-    <row r="45" spans="1:21" ht="19.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+    </row>
+    <row r="44" spans="1:21" ht="19.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
+  <mergeCells count="41">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:T41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A19:I20"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="A29:B29"/>
@@ -1687,26 +1731,19 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:E36"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:T42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/server/App/assets/receiptGenerationTherapy.xlsx
+++ b/server/App/assets/receiptGenerationTherapy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajud\Downloads\bhartiya-darohar-main\bhartiya-darohar-main\server\App\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418618AD-B6B4-4CF4-B8F2-D16DB705CA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA3C7E4-B161-41DA-AEE6-268A58B48D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -375,17 +375,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -394,7 +383,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -492,6 +481,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -530,15 +520,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,13 +538,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,11 +548,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1041,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1050,60 +1042,60 @@
     <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="0.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="24.6" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:18" ht="16.8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1117,8 +1109,8 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1129,9 +1121,9 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1146,15 +1138,15 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="30"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:18">
@@ -1172,10 +1164,10 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="24"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1">
+      <c r="Q8" s="51"/>
+      <c r="R8" s="52"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1189,7 +1181,7 @@
       <c r="G9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="64"/>
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1">
@@ -1203,79 +1195,79 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="68"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+    <row r="16" spans="1:18">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="19.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="22"/>
@@ -1284,63 +1276,63 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:13" ht="19.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="1:13" ht="23.4" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
       <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:13" ht="16.8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1354,8 +1346,8 @@
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1366,9 +1358,9 @@
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="47"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1383,15 +1375,15 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="30"/>
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="44"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:13">
@@ -1424,7 +1416,7 @@
       <c r="G27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="66"/>
+      <c r="H27" s="64"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1">
@@ -1438,22 +1430,22 @@
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1462,22 +1454,22 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="1" t="s">
         <v>17</v>
       </c>
@@ -1486,22 +1478,22 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="67"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
+    <row r="34" spans="1:21">
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
@@ -1509,28 +1501,28 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="73"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="32"/>
       <c r="D36" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="34" t="s">
         <v>5</v>
       </c>
@@ -1541,10 +1533,15 @@
         <v>3</v>
       </c>
       <c r="B37" s="36"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
       <c r="H37" s="28"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -1553,13 +1550,14 @@
       <c r="T37" s="25"/>
     </row>
     <row r="38" spans="1:21" ht="15.6" thickBot="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="67"/>
       <c r="L38" s="2"/>
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
@@ -1571,14 +1569,15 @@
       <c r="T38" s="25"/>
     </row>
     <row r="39" spans="1:21" ht="15.6" thickBot="1">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="1" t="s">
+      <c r="A39" s="63"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="39"/>
       <c r="M39" s="2"/>
       <c r="N39" s="26"/>
@@ -1591,17 +1590,18 @@
       <c r="U39" s="25"/>
     </row>
     <row r="40" spans="1:21" ht="15" thickBot="1">
-      <c r="A40" s="56"/>
-      <c r="B40" s="57"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="67"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="4"/>
@@ -1609,66 +1609,67 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:21" ht="15" thickBot="1">
-      <c r="A41" s="56"/>
-      <c r="B41" s="57"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="1" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="72"/>
       <c r="H41" s="39"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1">
       <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="70"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="67"/>
       <c r="I42" s="1"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="40"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="41" t="s">
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
       <c r="I43" s="1"/>
       <c r="L43" s="2"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="23"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
     </row>
     <row r="44" spans="1:21" ht="19.2">
       <c r="A44" s="1"/>

--- a/server/App/assets/receiptGenerationTherapy.xlsx
+++ b/server/App/assets/receiptGenerationTherapy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajud\Downloads\bhartiya-darohar-main\bhartiya-darohar-main\server\App\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA3C7E4-B161-41DA-AEE6-268A58B48D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EBAF49-8419-4B00-8C67-532CDF50B895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,12 +111,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,195 +385,198 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1033,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1051,51 +1061,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:18" ht="24.6" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:18" ht="16.8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1104,13 +1114,13 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1121,9 +1131,9 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1138,15 +1148,15 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="30"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="45"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:18">
@@ -1164,8 +1174,8 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="24"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="52"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
@@ -1181,7 +1191,7 @@
       <c r="G9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="64"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1">
@@ -1195,79 +1205,79 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="19.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="43" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="22"/>
@@ -1276,63 +1286,63 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:13" ht="19.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:13" ht="23.4" customHeight="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
       <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="16.8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1341,13 +1351,13 @@
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1358,9 +1368,9 @@
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
@@ -1375,15 +1385,15 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="30"/>
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="45"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:13">
@@ -1416,7 +1426,7 @@
       <c r="G27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="64"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:13" ht="15" thickBot="1">
@@ -1430,22 +1440,22 @@
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
@@ -1454,22 +1464,22 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66"/>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,22 +1488,22 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="67"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="66"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
@@ -1501,47 +1511,47 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="32"/>
       <c r="D36" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="34" t="s">
         <v>5</v>
       </c>
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:21" ht="15.6" thickBot="1">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
       <c r="H37" s="28"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -1550,14 +1560,14 @@
       <c r="T37" s="25"/>
     </row>
     <row r="38" spans="1:21" ht="15.6" thickBot="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="67"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="66"/>
       <c r="L38" s="2"/>
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
@@ -1569,16 +1579,16 @@
       <c r="T38" s="25"/>
     </row>
     <row r="39" spans="1:21" ht="15.6" thickBot="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="72" t="s">
+      <c r="A39" s="62"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="72"/>
-      <c r="H39" s="39"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="38"/>
       <c r="M39" s="2"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -1590,18 +1600,18 @@
       <c r="U39" s="25"/>
     </row>
     <row r="40" spans="1:21" ht="15" thickBot="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="67"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="66"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="4"/>
@@ -1609,67 +1619,67 @@
       <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:21" ht="15" thickBot="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="72" t="s">
+      <c r="A41" s="56"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="72"/>
-      <c r="H41" s="39"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="38"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="61"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="67"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="66"/>
       <c r="I42" s="1"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="61"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1">
-      <c r="A43" s="59"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
       <c r="I43" s="1"/>
       <c r="L43" s="2"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="23"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="61"/>
-      <c r="T43" s="61"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
     </row>
     <row r="44" spans="1:21" ht="19.2">
       <c r="A44" s="1"/>
@@ -1678,9 +1688,9 @@
       <c r="D44" s="21"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
